--- a/documents/Published/KPIColumn/KPIColumnByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/KPIColumn/KPIColumnByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerBI-CustomVisuals\documents\Published\KPIColumn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\KPIColumn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF1E0A-5D72-4F87-8456-02F4F2E4596E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAD0EFD-1466-42C2-B980-F0C9910603B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" xr2:uid="{CFA628E8-139E-4A70-BE7A-AA996D28E374}"/>
   </bookViews>
@@ -361,9 +361,6 @@
     <t>Change/ Update visual to make animation appear</t>
   </si>
   <si>
-    <t>The columns make transition from the bottom on every update.</t>
-  </si>
-  <si>
     <t>1. Drag the window or make any other update</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>The columns make transition from the x axis on every update.</t>
   </si>
 </sst>
 </file>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C560CE-405B-4CA8-AB3A-A0EEBCD256B2}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1051,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>69</v>
@@ -1195,10 +1195,10 @@
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1206,16 +1206,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1223,16 +1223,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1240,16 +1240,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1257,16 +1257,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1274,16 +1274,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1291,16 +1291,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1621,16 +1621,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1638,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1652,10 +1652,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -1666,13 +1666,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
